--- a/data/trans_orig/P32C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11401</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6630</v>
+        <v>6025</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20041</v>
+        <v>19006</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02420699496537835</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01407687459569303</v>
+        <v>0.012791394132521</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04255096076065858</v>
+        <v>0.04035289636230596</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11034</v>
+        <v>12018</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01859597034905713</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06585976797605318</v>
+        <v>0.07173678631754679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>14517</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8233</v>
+        <v>8375</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22993</v>
+        <v>23974</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02273479208746184</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01289294459378843</v>
+        <v>0.01311605890061609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03600971784285582</v>
+        <v>0.03754574064595252</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>459592</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>450952</v>
+        <v>451987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>464363</v>
+        <v>464968</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9757930050346216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9574490392393418</v>
+        <v>0.9596471036376942</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.985923125404307</v>
+        <v>0.9872086058674795</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -836,7 +836,7 @@
         <v>164420</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>156501</v>
+        <v>155517</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>167535</v>
@@ -845,7 +845,7 @@
         <v>0.9814040296509429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9341402320239469</v>
+        <v>0.9282632136824531</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>624011</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>615535</v>
+        <v>614554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>630295</v>
+        <v>630153</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9772652079125381</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9639902821571442</v>
+        <v>0.9624542593540475</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9871070554062116</v>
+        <v>0.986883941099384</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>16972</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9997</v>
+        <v>9809</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27445</v>
+        <v>27936</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01603518399851507</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009444839205688461</v>
+        <v>0.009267949445498946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02593061825960023</v>
+        <v>0.02639396731387645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -982,19 +982,19 @@
         <v>4047</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10221</v>
+        <v>9204</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007594206800971991</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001904129706081098</v>
+        <v>0.001884573640517291</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01917939808706175</v>
+        <v>0.01727103075706996</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -1003,19 +1003,19 @@
         <v>21019</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12995</v>
+        <v>13686</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33185</v>
+        <v>33001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01320841152854924</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008166014215529673</v>
+        <v>0.008600490197414547</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02085325581562198</v>
+        <v>0.02073815733439803</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1041446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1030973</v>
+        <v>1030482</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1048421</v>
+        <v>1048609</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9839648160014849</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9740693817404</v>
+        <v>0.9736060326861237</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9905551607943117</v>
+        <v>0.9907320505545011</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>519</v>
@@ -1053,19 +1053,19 @@
         <v>528871</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>522697</v>
+        <v>523714</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>531903</v>
+        <v>531914</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.992405793199028</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9808206019129383</v>
+        <v>0.9827289692429301</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9980958702939189</v>
+        <v>0.9981154263594827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1537</v>
@@ -1074,19 +1074,19 @@
         <v>1570317</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1558151</v>
+        <v>1558335</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1578341</v>
+        <v>1577650</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9867915884714508</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9791467441843782</v>
+        <v>0.979261842665602</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9918339857844704</v>
+        <v>0.9913995098025855</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6889</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2786</v>
+        <v>2827</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13801</v>
+        <v>13885</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01965454200133787</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007948428768508882</v>
+        <v>0.008064599382020783</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03937358200975476</v>
+        <v>0.03961454571332731</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4159</v>
+        <v>5174</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005242108809725906</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0214219138588763</v>
+        <v>0.02665333789281694</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1220,19 +1220,19 @@
         <v>7907</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3820</v>
+        <v>3832</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16236</v>
+        <v>15690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01451734844769212</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007013429778737799</v>
+        <v>0.007035367950403855</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02981015229774366</v>
+        <v>0.02880877361918587</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>343618</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>336706</v>
+        <v>336622</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>347721</v>
+        <v>347680</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9803454579986621</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9606264179902453</v>
+        <v>0.9603854542866727</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9920515712314911</v>
+        <v>0.9919354006179792</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>185</v>
@@ -1270,7 +1270,7 @@
         <v>193114</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>189973</v>
+        <v>188958</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>194132</v>
@@ -1279,7 +1279,7 @@
         <v>0.9947578911902741</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9785780861411237</v>
+        <v>0.9733466621071842</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>536732</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>528403</v>
+        <v>528949</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>540819</v>
+        <v>540807</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9854826515523079</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9701898477022564</v>
+        <v>0.9711912263808141</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9929865702212622</v>
+        <v>0.9929646320495962</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>35262</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24095</v>
+        <v>24476</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48903</v>
+        <v>48368</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01875736408598966</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01281693896424134</v>
+        <v>0.01301971826147105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02601311303635077</v>
+        <v>0.02572882220392149</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1416,19 +1416,19 @@
         <v>8180</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3519</v>
+        <v>3491</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16576</v>
+        <v>16487</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009144158666681085</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003933230639320762</v>
+        <v>0.003902136191402368</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0185296062380959</v>
+        <v>0.0184296980178311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -1437,19 +1437,19 @@
         <v>43443</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30971</v>
+        <v>32308</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57702</v>
+        <v>59383</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01565777280650212</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01116283748078772</v>
+        <v>0.01164475649040785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02079714728170491</v>
+        <v>0.02140319273544139</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1844656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1831015</v>
+        <v>1831550</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1855823</v>
+        <v>1855442</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9812426359140104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9739868869636493</v>
+        <v>0.9742711777960786</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.987183061035759</v>
+        <v>0.9869802817385293</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>867</v>
@@ -1487,19 +1487,19 @@
         <v>886404</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>878008</v>
+        <v>878097</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>891065</v>
+        <v>891093</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9908558413333189</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9814703937619041</v>
+        <v>0.981570301982169</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9960667693606793</v>
+        <v>0.9960978638085977</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2677</v>
@@ -1508,19 +1508,19 @@
         <v>2731060</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2716801</v>
+        <v>2715120</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2743532</v>
+        <v>2742195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9843422271934978</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9792028527182949</v>
+        <v>0.9785968072645586</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9888371625192122</v>
+        <v>0.9883552435095921</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>9686</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4787</v>
+        <v>4849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17052</v>
+        <v>17151</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01913803717441309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009458368713306617</v>
+        <v>0.009580911955743543</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03369092169290187</v>
+        <v>0.03388826917337945</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -1885,19 +1885,19 @@
         <v>9686</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4782</v>
+        <v>5152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16899</v>
+        <v>17580</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01324166286693394</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006537029297598794</v>
+        <v>0.007043520486228223</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02310263930591399</v>
+        <v>0.02403268738135665</v>
       </c>
     </row>
     <row r="5">
@@ -1914,19 +1914,19 @@
         <v>496432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489066</v>
+        <v>488967</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>501331</v>
+        <v>501269</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9808619628255869</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.966309078307098</v>
+        <v>0.9661117308266207</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9905416312866934</v>
+        <v>0.9904190880442565</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -1948,19 +1948,19 @@
         <v>721801</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>714588</v>
+        <v>713907</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>726705</v>
+        <v>726335</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.986758337133066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9768973606940861</v>
+        <v>0.9759673126186433</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9934629707024012</v>
+        <v>0.9929564795137718</v>
       </c>
     </row>
     <row r="6">
@@ -2052,19 +2052,19 @@
         <v>23278</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15496</v>
+        <v>15025</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33923</v>
+        <v>34746</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01945790920215698</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01295256833159215</v>
+        <v>0.01255933115197436</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02835549051937619</v>
+        <v>0.02904317302115407</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2073,19 +2073,19 @@
         <v>3038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8099</v>
+        <v>8134</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005126247673753315</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001678008488700766</v>
+        <v>0.001684637089371915</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01366632213375134</v>
+        <v>0.01372538508628154</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -2094,19 +2094,19 @@
         <v>26316</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17642</v>
+        <v>17246</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38496</v>
+        <v>37418</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01471034373750211</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009861839597265273</v>
+        <v>0.009639991094997002</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02151844624614461</v>
+        <v>0.02091602339887391</v>
       </c>
     </row>
     <row r="8">
@@ -2123,19 +2123,19 @@
         <v>1173062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1162417</v>
+        <v>1161594</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1180844</v>
+        <v>1181315</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.980542090797843</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9716445094806241</v>
+        <v>0.9709568269788454</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9870474316684084</v>
+        <v>0.9874406688480256</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>544</v>
@@ -2144,19 +2144,19 @@
         <v>589579</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>584518</v>
+        <v>584483</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>591623</v>
+        <v>591619</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9948737523262466</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9863336778662487</v>
+        <v>0.9862746149137185</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983219915112992</v>
+        <v>0.9983153629106281</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1648</v>
@@ -2165,19 +2165,19 @@
         <v>1762641</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1750461</v>
+        <v>1751539</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1771315</v>
+        <v>1771711</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9852896562624979</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9784815537538554</v>
+        <v>0.9790839766011261</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9901381604027348</v>
+        <v>0.990360008905003</v>
       </c>
     </row>
     <row r="9">
@@ -2269,19 +2269,19 @@
         <v>7061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2217</v>
+        <v>2014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16643</v>
+        <v>17138</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02178520080440779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006841373321321814</v>
+        <v>0.006214524872311921</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05134974159495141</v>
+        <v>0.05287598947258752</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2303,19 +2303,19 @@
         <v>7061</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2120</v>
+        <v>2093</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16944</v>
+        <v>17438</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01291603944579941</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003878225138759388</v>
+        <v>0.003828221780258968</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03099482660434069</v>
+        <v>0.03189862606222316</v>
       </c>
     </row>
     <row r="11">
@@ -2332,19 +2332,19 @@
         <v>317054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307472</v>
+        <v>306977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321898</v>
+        <v>322101</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9782147991955922</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9486502584050488</v>
+        <v>0.9471240105274122</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9931586266786783</v>
+        <v>0.9937854751276874</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>200</v>
@@ -2366,19 +2366,19 @@
         <v>539617</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>529734</v>
+        <v>529240</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>544558</v>
+        <v>544585</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9870839605542006</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9690051733956595</v>
+        <v>0.9681013739377763</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9961217748612406</v>
+        <v>0.996171778219741</v>
       </c>
     </row>
     <row r="12">
@@ -2470,19 +2470,19 @@
         <v>40025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28257</v>
+        <v>29173</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54093</v>
+        <v>57111</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01975023410791515</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01394335947462946</v>
+        <v>0.01439537071626534</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02669195179125535</v>
+        <v>0.02818127705884431</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -2491,19 +2491,19 @@
         <v>3038</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8157</v>
+        <v>8976</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002919519331120639</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0009630792345362535</v>
+        <v>0.0009595856740596809</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007838732907150991</v>
+        <v>0.008626124392514744</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -2512,19 +2512,19 @@
         <v>43063</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31570</v>
+        <v>31221</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57377</v>
+        <v>57895</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01404026039378294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01029304001807903</v>
+        <v>0.01017931116294178</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01870717192997092</v>
+        <v>0.01887592795799025</v>
       </c>
     </row>
     <row r="14">
@@ -2541,19 +2541,19 @@
         <v>1986548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1972480</v>
+        <v>1969462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1998316</v>
+        <v>1997400</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9802497658920849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9733080482087446</v>
+        <v>0.9718187229411555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9860566405253705</v>
+        <v>0.9856046292837346</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>953</v>
@@ -2562,19 +2562,19 @@
         <v>1037511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1032392</v>
+        <v>1031573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1039547</v>
+        <v>1039551</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9970804806688793</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.992161267092849</v>
+        <v>0.9913738756074865</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9990369207654638</v>
+        <v>0.9990404143259403</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2819</v>
@@ -2583,19 +2583,19 @@
         <v>3024059</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3009745</v>
+        <v>3009227</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3035552</v>
+        <v>3035901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9859597396062171</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.981292828070029</v>
+        <v>0.9811240720420092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9897069599819209</v>
+        <v>0.9898206888370581</v>
       </c>
     </row>
     <row r="15">
@@ -2926,19 +2926,19 @@
         <v>12996</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7120</v>
+        <v>7773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23034</v>
+        <v>23140</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03696556643479598</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02025127923484935</v>
+        <v>0.02211007573117476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06551917789747801</v>
+        <v>0.06581901944887543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5516</v>
+        <v>5484</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008084153535183401</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04039283309938881</v>
+        <v>0.04015722302948009</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2968,19 +2968,19 @@
         <v>14100</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8061</v>
+        <v>8367</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23816</v>
+        <v>23088</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02888570905730923</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01651507122732244</v>
+        <v>0.01714132824663585</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04879030317662089</v>
+        <v>0.04729939048484407</v>
       </c>
     </row>
     <row r="5">
@@ -2997,19 +2997,19 @@
         <v>338572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>328534</v>
+        <v>328428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>344448</v>
+        <v>343795</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.963034433565204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9344808221025219</v>
+        <v>0.9341809805511244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9797487207651506</v>
+        <v>0.9778899242688252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>127</v>
@@ -3018,7 +3018,7 @@
         <v>135454</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>131042</v>
+        <v>131074</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>136558</v>
@@ -3027,7 +3027,7 @@
         <v>0.9919158464648166</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9596071669006112</v>
+        <v>0.9598427769705199</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3039,19 +3039,19 @@
         <v>474027</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>464311</v>
+        <v>465039</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>480066</v>
+        <v>479760</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9711142909426907</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9512096968233792</v>
+        <v>0.9527006095151559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9834849287726776</v>
+        <v>0.9828586717533642</v>
       </c>
     </row>
     <row r="6">
@@ -3143,19 +3143,19 @@
         <v>14967</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8416</v>
+        <v>8580</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24080</v>
+        <v>25008</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01203825840550836</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006768859282942968</v>
+        <v>0.006900709011201489</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01936795713835074</v>
+        <v>0.02011441934817932</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -3164,19 +3164,19 @@
         <v>4184</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1085</v>
+        <v>1009</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10605</v>
+        <v>9477</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005866767035665701</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001520856602597363</v>
+        <v>0.001415385937374082</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01487185287438124</v>
+        <v>0.01328938817758502</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -3185,19 +3185,19 @@
         <v>19151</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11549</v>
+        <v>11997</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29001</v>
+        <v>31019</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009788781080949971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005903187681211291</v>
+        <v>0.006131959129665521</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01482361451824216</v>
+        <v>0.01585535005869471</v>
       </c>
     </row>
     <row r="8">
@@ -3214,19 +3214,19 @@
         <v>1228338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1219225</v>
+        <v>1218297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1234889</v>
+        <v>1234725</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9879617415944917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9806320428616493</v>
+        <v>0.9798855806518207</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9932311407170571</v>
+        <v>0.9930992909887986</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>684</v>
@@ -3235,19 +3235,19 @@
         <v>708916</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>702495</v>
+        <v>703623</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>712015</v>
+        <v>712091</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9941332329643343</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9851281471256187</v>
+        <v>0.986710611822415</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9984791433974026</v>
+        <v>0.9985846140626259</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1841</v>
@@ -3256,19 +3256,19 @@
         <v>1937254</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1927404</v>
+        <v>1925386</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1944856</v>
+        <v>1944408</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9902112189190501</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9851763854817578</v>
+        <v>0.9841446499413053</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9940968123187888</v>
+        <v>0.9938680408703349</v>
       </c>
     </row>
     <row r="9">
@@ -3360,19 +3360,19 @@
         <v>4000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9949</v>
+        <v>9456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01064898215888957</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002726085738389346</v>
+        <v>0.0027337440362826</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02648650917854785</v>
+        <v>0.02517353299482489</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4633</v>
+        <v>4797</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00331141375398903</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01663619823204944</v>
+        <v>0.01722176229954879</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3402,19 +3402,19 @@
         <v>4922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1869</v>
+        <v>1908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11027</v>
+        <v>11285</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007524925708818678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002856741289501258</v>
+        <v>0.002917153831176567</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01685676358122931</v>
+        <v>0.01725177759538449</v>
       </c>
     </row>
     <row r="11">
@@ -3431,19 +3431,19 @@
         <v>371642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>365693</v>
+        <v>366186</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>374618</v>
+        <v>374615</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9893510178411105</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9735134908214522</v>
+        <v>0.9748264670051747</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9972739142616107</v>
+        <v>0.9972662559637173</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>262</v>
@@ -3452,7 +3452,7 @@
         <v>277593</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>273882</v>
+        <v>273718</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>278515</v>
@@ -3461,7 +3461,7 @@
         <v>0.996688586246011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9833638017679506</v>
+        <v>0.9827782377004526</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3473,19 +3473,19 @@
         <v>649236</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643131</v>
+        <v>642873</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652289</v>
+        <v>652250</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9924750742911813</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9831432364187709</v>
+        <v>0.982748222404616</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9971432587104987</v>
+        <v>0.9970828461688235</v>
       </c>
     </row>
     <row r="12">
@@ -3577,19 +3577,19 @@
         <v>31963</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22201</v>
+        <v>21575</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45331</v>
+        <v>44386</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0162208091807938</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01126663425629642</v>
+        <v>0.01094889354728737</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02300448533105887</v>
+        <v>0.0225250621521257</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -3598,19 +3598,19 @@
         <v>6210</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2943</v>
+        <v>2193</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14631</v>
+        <v>13039</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005504320096731997</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002608867951547055</v>
+        <v>0.001943669329253638</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01296861795527906</v>
+        <v>0.01155771777007933</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -3619,19 +3619,19 @@
         <v>38173</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26682</v>
+        <v>26979</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51311</v>
+        <v>51269</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01231914131476405</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008610770405873441</v>
+        <v>0.008706724920787948</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0165587853955248</v>
+        <v>0.01654532931388863</v>
       </c>
     </row>
     <row r="14">
@@ -3648,19 +3648,19 @@
         <v>1938553</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1925185</v>
+        <v>1926130</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1948315</v>
+        <v>1948941</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9837791908192062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9769955146689411</v>
+        <v>0.9774749378478743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9887333657437034</v>
+        <v>0.9890511064527127</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1073</v>
@@ -3669,19 +3669,19 @@
         <v>1121963</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1113542</v>
+        <v>1115134</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1125230</v>
+        <v>1125980</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.994495679903268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9870313820447201</v>
+        <v>0.9884422822299198</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.997391132048453</v>
+        <v>0.9980563306707463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2906</v>
@@ -3690,19 +3690,19 @@
         <v>3060517</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3047379</v>
+        <v>3047421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3072008</v>
+        <v>3071711</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9876808586852359</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.983441214604475</v>
+        <v>0.9834546706861115</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.991389229594126</v>
+        <v>0.9912932750792121</v>
       </c>
     </row>
     <row r="15">
@@ -4033,19 +4033,19 @@
         <v>9217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4844</v>
+        <v>4972</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15738</v>
+        <v>16145</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03565395091973762</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0187362949137881</v>
+        <v>0.01923336041122697</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06087971603500386</v>
+        <v>0.06245450061643056</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01185005586813159</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4075,19 +4075,19 @@
         <v>10105</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5731</v>
+        <v>5484</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17131</v>
+        <v>17024</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03030460594198265</v>
+        <v>0.03030460594198264</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01718669472293733</v>
+        <v>0.01644590408884061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05137694476506712</v>
+        <v>0.05105364742361674</v>
       </c>
     </row>
     <row r="5">
@@ -4104,19 +4104,19 @@
         <v>249294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>242773</v>
+        <v>242366</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>253667</v>
+        <v>253539</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9643460490802623</v>
+        <v>0.9643460490802622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9391202839649961</v>
+        <v>0.93754549938357</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9812637050862119</v>
+        <v>0.9807666395887736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -4125,16 +4125,16 @@
         <v>74045</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71886</v>
+        <v>71414</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>74933</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9881499441318685</v>
+        <v>0.9881499441318683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9593354153570246</v>
+        <v>0.9530336065231636</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4146,19 +4146,19 @@
         <v>323339</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>316313</v>
+        <v>316420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>327713</v>
+        <v>327960</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9696953940580175</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9486230552349331</v>
+        <v>0.9489463525763836</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9828133052770631</v>
+        <v>0.9835540959111593</v>
       </c>
     </row>
     <row r="6">
@@ -4250,19 +4250,19 @@
         <v>7023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3491</v>
+        <v>3077</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13181</v>
+        <v>13962</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006716280871850806</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003338113854876547</v>
+        <v>0.002942386709201353</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01260442665635566</v>
+        <v>0.01335092500092255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4271,19 +4271,19 @@
         <v>10182</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4168</v>
+        <v>4055</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19212</v>
+        <v>20289</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01820418441504579</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007451174999921503</v>
+        <v>0.007249873440091201</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03434829194476147</v>
+        <v>0.03627462749650388</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -4292,19 +4292,19 @@
         <v>17206</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10105</v>
+        <v>10535</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30599</v>
+        <v>28510</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0107195542310414</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006295464475338689</v>
+        <v>0.006563371088193915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01906417778262665</v>
+        <v>0.01776222824282541</v>
       </c>
     </row>
     <row r="8">
@@ -4321,19 +4321,19 @@
         <v>1038713</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1032555</v>
+        <v>1031774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1042245</v>
+        <v>1042659</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9932837191281492</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9873955733436444</v>
+        <v>0.9866490749990776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9966618861451235</v>
+        <v>0.9970576132907987</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>710</v>
@@ -4342,19 +4342,19 @@
         <v>549146</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>540116</v>
+        <v>539039</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>555160</v>
+        <v>555273</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9817958155849542</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9656517080552388</v>
+        <v>0.9637253725034961</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9925488250000785</v>
+        <v>0.9927501265599087</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1619</v>
@@ -4363,19 +4363,19 @@
         <v>1587858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1574465</v>
+        <v>1576554</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1594959</v>
+        <v>1594529</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9892804457689586</v>
+        <v>0.9892804457689587</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9809358222173734</v>
+        <v>0.9822377717571743</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9937045355246613</v>
+        <v>0.993436628911806</v>
       </c>
     </row>
     <row r="9">
@@ -4467,19 +4467,19 @@
         <v>3644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8557</v>
+        <v>8784</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.00990024003987835</v>
+        <v>0.009900240039878352</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002464495966077348</v>
+        <v>0.002481694930922981</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02325019130454104</v>
+        <v>0.02386743836745127</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3334</v>
+        <v>3150</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002030131035304749</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01235495056301862</v>
+        <v>0.01167394334773413</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -4509,19 +4509,19 @@
         <v>4191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1499</v>
+        <v>1170</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10411</v>
+        <v>9223</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006571068760064116</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002349780150283628</v>
+        <v>0.001834543231646892</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01632152920321597</v>
+        <v>0.01446024360015118</v>
       </c>
     </row>
     <row r="11">
@@ -4538,19 +4538,19 @@
         <v>364385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>359472</v>
+        <v>359245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>367122</v>
+        <v>367116</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9900997599601216</v>
+        <v>0.9900997599601217</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9767498086954589</v>
+        <v>0.9761325616325488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9975355040339228</v>
+        <v>0.997518305069077</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>358</v>
@@ -4559,16 +4559,16 @@
         <v>269271</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266485</v>
+        <v>266669</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>269819</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.997969868964695</v>
+        <v>0.9979698689646952</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9876450494369814</v>
+        <v>0.988326056652265</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4580,19 +4580,19 @@
         <v>633657</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>627437</v>
+        <v>628625</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>636349</v>
+        <v>636678</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9934289312399359</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9836784707967841</v>
+        <v>0.9855397563998488</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9976502198497164</v>
+        <v>0.998165456768353</v>
       </c>
     </row>
     <row r="12">
@@ -4684,19 +4684,19 @@
         <v>19884</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12857</v>
+        <v>13267</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28549</v>
+        <v>29852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01189036006188274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00768826738131229</v>
+        <v>0.007933357640002784</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01707205226474958</v>
+        <v>0.0178509798986018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -4705,19 +4705,19 @@
         <v>11618</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5738</v>
+        <v>5504</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22654</v>
+        <v>21485</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01285045583685027</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006346721914698519</v>
+        <v>0.006087804091336139</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02505695627270303</v>
+        <v>0.02376491879545332</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -4726,19 +4726,19 @@
         <v>31502</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21322</v>
+        <v>21109</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43312</v>
+        <v>44779</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01222727162163074</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008275952765066355</v>
+        <v>0.008193243150956648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01681138120806741</v>
+        <v>0.01738091338922844</v>
       </c>
     </row>
     <row r="14">
@@ -4755,19 +4755,19 @@
         <v>1652392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1643727</v>
+        <v>1642424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1659419</v>
+        <v>1659009</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9881096399381173</v>
+        <v>0.9881096399381174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9829279477352504</v>
+        <v>0.982149020101398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9923117326186875</v>
+        <v>0.9920666423599972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1189</v>
@@ -4776,19 +4776,19 @@
         <v>892463</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>881427</v>
+        <v>882596</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>898343</v>
+        <v>898577</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9871495441631498</v>
+        <v>0.9871495441631496</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9749430437272968</v>
+        <v>0.9762350812045466</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9936532780853014</v>
+        <v>0.9939121959086639</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2744</v>
@@ -4797,19 +4797,19 @@
         <v>2544855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2533045</v>
+        <v>2531578</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2555035</v>
+        <v>2555248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9877727283783692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9831886187919324</v>
+        <v>0.9826190866107716</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9917240472349337</v>
+        <v>0.9918067568490434</v>
       </c>
     </row>
     <row r="15">
